--- a/data/trans_dic/P28B_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28B_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha alimentado peor respecto al último mes</t>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -710,17 +711,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -735,17 +736,17 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 19,72</t>
+          <t>13,64; 19,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,51</t>
+          <t>8,85; 14,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,8</t>
+          <t>4,61; 9,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,13</t>
+          <t>4,22; 8,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,65</t>
+          <t>6,16; 10,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,81; 24,47</t>
+          <t>18,75; 24,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,44</t>
+          <t>8,4; 13,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 10,99</t>
+          <t>6,91; 11,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,88</t>
+          <t>6,38; 10,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,35; 16,19</t>
+          <t>11,34; 16,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,99; 21,24</t>
+          <t>16,95; 21,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,22; 12,54</t>
+          <t>9,14; 12,76</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,18</t>
+          <t>6,3; 9,34</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 8,29</t>
+          <t>5,76; 8,68</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>9,5; 12,8</t>
+          <t>9,47; 12,75</t>
         </is>
       </c>
     </row>
@@ -850,22 +851,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>8,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -900,22 +901,22 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,15; 18,18</t>
+          <t>12,34; 18,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,98</t>
+          <t>4,08; 9,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,43</t>
+          <t>3,94; 7,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,2</t>
+          <t>2,52; 6,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 15,82</t>
+          <t>6,08; 14,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,02</t>
+          <t>15,13; 20,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,74</t>
+          <t>8,35; 15,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 10,93</t>
+          <t>6,39; 10,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,51</t>
+          <t>6,91; 13,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,08; 19,83</t>
+          <t>8,84; 19,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,4; 18,84</t>
+          <t>14,44; 18,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,68</t>
+          <t>6,9; 11,06</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,56</t>
+          <t>5,73; 8,86</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,45</t>
+          <t>5,06; 8,81</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 15,06</t>
+          <t>8,17; 14,88</t>
         </is>
       </c>
     </row>
@@ -1025,17 +1026,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 16,28</t>
+          <t>5,8; 15,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 16,25</t>
+          <t>4,42; 14,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,43</t>
+          <t>2,31; 9,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,93</t>
+          <t>0,0; 6,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,54; 21,36</t>
+          <t>10,38; 21,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,45; 16,52</t>
+          <t>6,04; 16,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,26; 22,38</t>
+          <t>9,55; 21,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 10,27</t>
+          <t>3,18; 10,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,35; 16,93</t>
+          <t>9,66; 16,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 14,17</t>
+          <t>6,11; 13,39</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 14,2</t>
+          <t>7,15; 13,94</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,69</t>
+          <t>2,12; 6,61</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1190,22 +1191,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,17 +1221,17 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1240,22 +1241,22 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 17,04</t>
+          <t>13,21; 17,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 10,81</t>
+          <t>7,4; 10,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 7,28</t>
+          <t>4,75; 7,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,94</t>
+          <t>3,63; 6,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,73</t>
+          <t>6,71; 10,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,55</t>
+          <t>17,65; 21,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,18</t>
+          <t>9,05; 12,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,12</t>
+          <t>8,07; 10,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,58</t>
+          <t>6,79; 10,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,41; 15,84</t>
+          <t>11,48; 15,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 18,83</t>
+          <t>15,94; 18,59</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,48; 10,91</t>
+          <t>8,69; 11,28</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,78</t>
+          <t>6,74; 8,81</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,3</t>
+          <t>5,52; 7,61</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,71; 12,71</t>
+          <t>9,56; 12,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha alimentado peor respecto al último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>281.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>266210</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>186822</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>110316</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>98960</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18749</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>386099</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>189852</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>159520</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>144980</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>32339</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>652308</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>376674</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>269836</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>243940</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>51088</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>223636; 321795</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>146012; 233427</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>76006; 156052</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>69384; 143327</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>14103; 24557</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>335734; 441799</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>151541; 237042</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>126188; 201791</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>116019; 183112</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26949; 38169</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>581649; 724994</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>315511; 440655</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>218947; 324615</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>199440; 300777</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>44173; 59469</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>208267</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86717</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78083</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>59049</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6989</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>253626</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>154950</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>117823</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>128093</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8572</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>461894</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>241667</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>195906</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>187142</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15560</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>171121; 254209</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>56020; 123847</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>54366; 110246</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34562; 93402</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4395; 10830</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>213321; 294826</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>116206; 209284</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>87849; 150374</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>95349; 184194</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5764; 12512</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>403696; 522795</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>190807; 305865</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>157871; 243987</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>139203; 242525</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11234; 20460</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43518</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36320</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21249</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7432</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63375</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42922</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>61403</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24332</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>106892</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>79242</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>82652</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>31764</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24521; 67364</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18674; 61332</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9628; 40981</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 26638</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42774; 87858</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24865; 68349</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38541; 86446</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13039; 43704</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>80674; 140630</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>50967; 111745</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>58596; 114330</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17646; 55074</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>526.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>517995</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>309859</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>209648</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>165441</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25737</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>703100</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>387724</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>338745</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>297405</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40911</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1221094</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>697583</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>548393</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>462846</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>66648</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>455632; 601344</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>255070; 373457</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>163510; 271958</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>124704; 218308</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>20191; 32197</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>637617; 779386</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>326324; 459923</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>291025; 393763</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>245079; 363827</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34777; 47774</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1125428; 1312611</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>613242; 795518</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>474758; 620811</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>388851; 536181</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>57715; 76476</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>